--- a/public/uploadDir/roomInfoTemplate.xlsx
+++ b/public/uploadDir/roomInfoTemplate.xlsx
@@ -33,20 +33,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南校区南研1楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南校区南研11楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否空闲</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -408,7 +406,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -438,13 +436,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -452,13 +450,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -466,13 +464,13 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -480,13 +478,13 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,13 +492,13 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,13 +506,13 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,13 +520,13 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -536,13 +534,13 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -550,13 +548,13 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,13 +562,13 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -578,13 +576,13 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,13 +590,13 @@
         <v>1101</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,13 +604,13 @@
         <v>1102</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,13 +618,13 @@
         <v>1103</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,13 +632,13 @@
         <v>1104</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,13 +646,13 @@
         <v>1105</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -662,13 +660,13 @@
         <v>1106</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,13 +674,13 @@
         <v>1107</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,13 +688,13 @@
         <v>1108</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,13 +702,13 @@
         <v>1109</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,13 +716,13 @@
         <v>1110</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
